--- a/frame/results_2node.xlsx
+++ b/frame/results_2node.xlsx
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -941,7 +941,7 @@
         <v>-0</v>
       </c>
       <c r="C5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>11</v>
